--- a/cv32e40x/docs/VerifPlans/Simulation/micro_architecture/CV32E40X_fencei.xlsx
+++ b/cv32e40x/docs/VerifPlans/Simulation/micro_architecture/CV32E40X_fencei.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ropeders\Documents\fencei_vplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C58AF8-9BA6-4863-91BD-C5D0D450F0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5EAED0-2D48-4117-AB7E-2165562011DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
     <author>tc={2F57A4C5-8706-4FC8-8CE8-0C6AADC484ED}</author>
   </authors>
   <commentList>
-    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{2F57A4C5-8706-4FC8-8CE8-0C6AADC484ED}">
+    <comment ref="E21" authorId="0" shapeId="0" xr:uid="{2F57A4C5-8706-4FC8-8CE8-0C6AADC484ED}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="99">
   <si>
     <t>Requirement Location</t>
   </si>
@@ -185,9 +185,6 @@
     <t>Ack change</t>
   </si>
   <si>
-    <t>Branch</t>
-  </si>
-  <si>
     <t>Flush</t>
   </si>
   <si>
@@ -251,9 +248,6 @@
     <t>Try giving random values in those fields and see that all else works as expected</t>
   </si>
   <si>
-    <t>Given zero stalls on neither instr-side and data-side obi nor on fencei_flush_ack_i, then the execution of fence.i takes 2 or 3 cycles</t>
-  </si>
-  <si>
     <t>Fill up the write buffer prior to executing a fence.i and ensure that fencei_flush_req_o holds off going high until the write buffer to has been emptied</t>
   </si>
   <si>
@@ -269,9 +263,6 @@
     <t>Drive ack to test all permutations of rising/falling before/after/on req, acking without req, retracting an early ack, delaying ack after req, etc.</t>
   </si>
   <si>
-    <t>Upon a req, try witholding ack for a long time and see that the fence.i can be stalled arbitrarily long</t>
-  </si>
-  <si>
     <t>Fetching</t>
   </si>
   <si>
@@ -321,6 +312,36 @@
   </si>
   <si>
     <t>Check that all stores (either to next pc or other places) preceding a fence.i will complete on the bus (excluding exceptions/interrupts/etc) and be readable afterwards (particularly, ensure that the write buffer isn't just purged)</t>
+  </si>
+  <si>
+    <t>Branch initiated</t>
+  </si>
+  <si>
+    <t>Shadowing branch</t>
+  </si>
+  <si>
+    <t>Take a branch or do a jump to skip a fence.i, and ensure that fencei_flush_req_o doesn't go high</t>
+  </si>
+  <si>
+    <t>If the fence.i ends up not retiring because it was preceeded by a taken branch or a jump, then the fencei_flush_req_o shall not go high</t>
+  </si>
+  <si>
+    <t>Given zero stalls on neither instr-side and data-side obi nor on fencei_flush_ack_i, then the execution of fence.i takes 2 or 3 cycles (three when target is non-word-aligned non-RVC)</t>
+  </si>
+  <si>
+    <t>Upon a req, try witholding ack for a long time and see that the fence.i can be stalled arbitrarily long (should have covers for ack delays of at least {[0:5]})</t>
+  </si>
+  <si>
+    <t>Let the environment detect when a fencei is being executed and then change the memory holding the next instruction (tests prefetch flush)</t>
+  </si>
+  <si>
+    <t>Req wait OBI</t>
+  </si>
+  <si>
+    <t>fencei_flush_req_o shall not go high while there are outstanding stores on the obi bus</t>
+  </si>
+  <si>
+    <t>Check vs the OBI monitors that there are no outstanding stores at the time fencei_flush_req_o goes high</t>
   </si>
 </sst>
 </file>
@@ -824,7 +845,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="E18" dT="2021-09-21T11:02:44.84" personId="{3C0FA6B8-FDF8-4FDA-B4A9-EF789180BFC5}" id="{2F57A4C5-8706-4FC8-8CE8-0C6AADC484ED}">
+  <threadedComment ref="E21" dT="2021-09-21T11:02:44.84" personId="{3C0FA6B8-FDF8-4FDA-B4A9-EF789180BFC5}" id="{2F57A4C5-8706-4FC8-8CE8-0C6AADC484ED}">
     <text>Or should this NOT be tried, because it is undefined behavior and because it will most likely conflict with the iss?</text>
   </threadedComment>
 </ThreadedComments>
@@ -832,19 +853,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ35"/>
+  <dimension ref="A1:AMJ38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="51.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="41.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" style="1" customWidth="1"/>
@@ -886,17 +907,17 @@
     </row>
     <row r="2" spans="1:9" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>16</v>
@@ -909,59 +930,51 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" s="5" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="5" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>43</v>
-      </c>
+    <row r="5" spans="1:9" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>19</v>
@@ -974,7 +987,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" s="5" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>38</v>
       </c>
@@ -982,10 +995,10 @@
         <v>41</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>81</v>
@@ -994,14 +1007,14 @@
         <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="5" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>38</v>
       </c>
@@ -1009,13 +1022,13 @@
         <v>41</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>19</v>
@@ -1028,7 +1041,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
@@ -1036,13 +1049,13 @@
         <v>41</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>19</v>
@@ -1055,7 +1068,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>38</v>
       </c>
@@ -1063,26 +1076,26 @@
         <v>41</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>38</v>
       </c>
@@ -1090,26 +1103,26 @@
         <v>41</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>38</v>
       </c>
@@ -1117,26 +1130,26 @@
         <v>41</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>38</v>
       </c>
@@ -1144,16 +1157,16 @@
         <v>41</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>26</v>
@@ -1168,14 +1181,16 @@
         <v>38</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="D13" s="7" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>19</v>
@@ -1184,23 +1199,25 @@
         <v>26</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="D14" s="7" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>19</v>
@@ -1209,53 +1226,63 @@
         <v>26</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="D15" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>91</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
+    <row r="16" spans="1:9" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="F16" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>38</v>
       </c>
@@ -1264,10 +1291,10 @@
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>19</v>
@@ -1280,104 +1307,138 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>49</v>
+    <row r="18" spans="1:9" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>49</v>
+    <row r="20" spans="1:9" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="6"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
+    <row r="22" spans="1:9" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="6"/>
+      <c r="F22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
+    <row r="23" spans="1:9" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="6"/>
+      <c r="D23" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1501,22 +1562,55 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+    <row r="35" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A38:I38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1531,7 +1625,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>H2:H34</xm:sqref>
+          <xm:sqref>H2:H37</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
@@ -1540,7 +1634,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>G2:G34</xm:sqref>
+          <xm:sqref>G2:G37</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
@@ -1549,7 +1643,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F34</xm:sqref>
+          <xm:sqref>F2:F37</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1738,13 +1832,13 @@
     </row>
     <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>56</v>
       </c>
       <c r="E6" s="14"/>
     </row>
